--- a/biology/Zoologie/Antriade_du_Verapaz/Antriade_du_Verapaz.xlsx
+++ b/biology/Zoologie/Antriade_du_Verapaz/Antriade_du_Verapaz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schiffornis veraepacis
 L'Antriade du Verapaz (Schiffornis veraepacis) ou Antriade brun, est une espèce de passereaux de la famille des Tityridae.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Antriade brun se rencontre au Belize, sur la côte pacifique de la Colombie, sur la côte pacifique et au nord du Costa Rica, sur la côte pacifique de l'Équateur, dans la moitié nord du Guatemala, au sud et sur la côte de la mer des Caraïbes du Honduras, au Mexique (Etat du Campeche, de Tabasco, de Veracruz et du Quintana Roo), du nord au sud du Nicaragua, au Panama et dans une petite poche au nord du Pérou[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Antriade brun se rencontre au Belize, sur la côte pacifique de la Colombie, sur la côte pacifique et au nord du Costa Rica, sur la côte pacifique de l'Équateur, dans la moitié nord du Guatemala, au sud et sur la côte de la mer des Caraïbes du Honduras, au Mexique (Etat du Campeche, de Tabasco, de Veracruz et du Quintana Roo), du nord au sud du Nicaragua, au Panama et dans une petite poche au nord du Pérou.
 </t>
         </is>
       </c>
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,14 +613,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 juin 2018)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 juin 2018) :
 sous-espèce Schiffornis veraepacis acrolophites Wetmore, 1972
 sous-espèce Schiffornis veraepacis dumicola (Bangs, 1903)
 sous-espèce Schiffornis veraepacis rosenbergi (Hartert, 1898)
 sous-espèce Schiffornis veraepacis veraepacis (Sclater &amp; Salvin, 1860)
-Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018)[1] :
+Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018) :
 sous-espèce Schiffornis veraepacis veraepacis (Sclater, PL &amp; Salvin, 1860)
 sous-espèce Schiffornis veraepacis dumicola (Bangs, 1903)
 sous-espèce Schiffornis veraepacis rosenbergi (Hartert, 1898)
